--- a/Titus/Gurobi code/Final/Input/K-Maandag.xlsx
+++ b/Titus/Gurobi code/Final/Input/K-Maandag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\Werk\IntegrativePractical5\Titus\Gurobi code\Final\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D645A1FB-8C05-4F4B-826C-CDAD2691E71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3AB9B1-A41E-4675-B80F-7A642F66D3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{87B6903B-CA55-4219-9873-BB843C7D2BA1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{D5F8D090-AB45-4831-987B-C9940F08C074}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E733CFBC-1A9C-467C-99F2-5421FF76E2B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3CDBE9-B2D9-42AF-81DA-100DCD865FE4}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -480,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B1">
-        <v>4593.306412177616</v>
+        <v>4593</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>3850.9538607145669</v>
+        <v>3851</v>
       </c>
       <c r="C2">
-        <v>2459.0428267213501</v>
+        <v>2460</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,16 +520,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4222.1301364460905</v>
+        <v>4222</v>
       </c>
       <c r="C3">
-        <v>3062.2042747850769</v>
+        <v>3063</v>
       </c>
       <c r="D3">
-        <v>2923.0131713857559</v>
+        <v>2923</v>
       </c>
       <c r="E3">
-        <v>2598.2339301206721</v>
+        <v>2599</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>2783.8220679864339</v>
+        <v>2784</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -600,13 +600,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>3108.6013092515182</v>
+        <v>3109</v>
       </c>
       <c r="C7">
-        <v>3015.807240318637</v>
+        <v>3016</v>
       </c>
       <c r="D7">
-        <v>2969.4102058521962</v>
+        <v>2970</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>3386.9835160501621</v>
+        <v>3387</v>
       </c>
       <c r="C8">
-        <v>3247.7924126508401</v>
+        <v>3248</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>3340.5864815837208</v>
+        <v>3341</v>
       </c>
       <c r="C10">
-        <v>2366.248757788469</v>
+        <v>2367</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>3015.807240318637</v>
+        <v>3016</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2969.4102058521962</v>
+        <v>2970</v>
       </c>
       <c r="C13">
-        <v>2459.0428267213501</v>
+        <v>2460</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3804.556826248127</v>
+        <v>3805</v>
       </c>
       <c r="C14">
-        <v>2923.0131713857559</v>
+        <v>2923</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2830.2191024528752</v>
+        <v>2831</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2598.2339301206721</v>
+        <v>2599</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>2598.2339301206721</v>
+        <v>2599</v>
       </c>
       <c r="C17">
-        <v>2366.248757788469</v>
+        <v>2367</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3154.998343717959</v>
+        <v>3155</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>3990.1449641138888</v>
+        <v>3990</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>3572.5716539159239</v>
+        <v>3573</v>
       </c>
       <c r="C22">
-        <v>2969.4102058521962</v>
+        <v>2970</v>
       </c>
       <c r="D22">
-        <v>2691.0279990535528</v>
+        <v>2692</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3108.6013092515182</v>
+        <v>3109</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>3247.7924126508401</v>
+        <v>3248</v>
       </c>
       <c r="C25">
-        <v>2737.425033519994</v>
+        <v>2738</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>3247.7924126508401</v>
+        <v>3248</v>
       </c>
       <c r="C27">
-        <v>3062.2042747850769</v>
+        <v>3063</v>
       </c>
       <c r="D27">
-        <v>3154.998343717959</v>
+        <v>3155</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>3201.3953781843989</v>
+        <v>3202</v>
       </c>
       <c r="C28">
-        <v>2644.630964587112</v>
+        <v>2645</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>3386.9835160501621</v>
+        <v>3387</v>
       </c>
       <c r="C29">
         <v>0</v>
